--- a/doc/crawling_perf.xlsx
+++ b/doc/crawling_perf.xlsx
@@ -99,10 +99,10 @@
     <t>49.05</t>
   </si>
   <si>
-    <t>34.941</t>
-  </si>
-  <si>
     <t>49.583</t>
+  </si>
+  <si>
+    <t>41.48</t>
   </si>
 </sst>
 </file>
@@ -157,8 +157,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -237,7 +253,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="87">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -273,6 +289,14 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -308,6 +332,14 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -640,7 +672,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0"/>
@@ -769,7 +801,7 @@
         <v>1000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="24" customHeight="1">
@@ -786,7 +818,7 @@
         <v>1000</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="24" customHeight="1">
